--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB784F40-ED62-46FB-9935-9FE2CD417C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="userCredentials" sheetId="7" r:id="rId1"/>
@@ -120,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,23 +504,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -538,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -560,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -571,7 +570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -582,7 +581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -593,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -604,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -615,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -626,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -637,7 +636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -648,7 +647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -659,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -677,12 +676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6CBB4-7975-4899-BDD5-0FF8494C9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="17280" windowHeight="8880"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userCredentials" sheetId="7" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>admin</t>
   </si>
@@ -50,9 +51,6 @@
     <t>admin@firstdayhc.com</t>
   </si>
   <si>
-    <t>letsdoit@123</t>
-  </si>
-  <si>
     <t>customerLoginCrendentails</t>
   </si>
   <si>
@@ -114,13 +112,19 @@
   </si>
   <si>
     <t>testprovider2may@yopmail.com</t>
+  </si>
+  <si>
+    <t>otherProviderForProviderStatusCheck</t>
+  </si>
+  <si>
+    <t>testautootherproviderFP@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,9 +167,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,23 +509,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A13:C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="78.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -537,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -545,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -559,114 +564,125 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -676,12 +692,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6CBB4-7975-4899-BDD5-0FF8494C9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="userCredentials" sheetId="7" r:id="rId1"/>
@@ -123,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,23 +508,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -542,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -553,7 +552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -564,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -575,7 +574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -586,7 +585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -597,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -608,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -619,7 +618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -630,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -641,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -652,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -663,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -674,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -692,12 +691,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pageobjects/testData/files/usersCredentials.xlsx
+++ b/pageobjects/testData/files/usersCredentials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6CBB4-7975-4899-BDD5-0FF8494C9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C0AA8-F856-4EF2-979A-F1E069E79751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>admin</t>
   </si>
@@ -99,9 +99,6 @@
     <t>managingProviderForStatusCheck</t>
   </si>
   <si>
-    <t>managingauto@yopmail.com</t>
-  </si>
-  <si>
     <t>otherProviderForStatusCheck</t>
   </si>
   <si>
@@ -111,13 +108,13 @@
     <t>providerLoginCrendentails</t>
   </si>
   <si>
-    <t>testprovider2may@yopmail.com</t>
-  </si>
-  <si>
     <t>otherProviderForProviderStatusCheck</t>
   </si>
   <si>
     <t>testautootherproviderFP@yopmail.com</t>
+  </si>
+  <si>
+    <t>managingautoprovider@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -513,7 +510,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,8 +642,8 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -654,10 +651,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -665,10 +662,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -676,10 +673,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
